--- a/data/trans_bre/P19C04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -1,32</t>
+          <t>-10,27; -0,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 3,38</t>
+          <t>-8,08; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,6</t>
+          <t>-5,33; 3,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,98</t>
+          <t>-6,84; -1,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,74; -9,64</t>
+          <t>-67,32; -7,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,96; 30,46</t>
+          <t>-51,55; 20,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,35; 37,26</t>
+          <t>-48,02; 44,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,95; -15,54</t>
+          <t>-64,48; -13,57</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -2,82</t>
+          <t>-13,0; -2,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,23</t>
+          <t>-9,02; 1,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,98; -1,91</t>
+          <t>-11,4; -1,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -1,09</t>
+          <t>-8,36; -1,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,17; -19,11</t>
+          <t>-71,03; -20,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 19,9</t>
+          <t>-54,29; 11,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,59; -16,42</t>
+          <t>-74,42; -15,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,63; -9,94</t>
+          <t>-65,39; -13,51</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -0,18</t>
+          <t>-14,04; -0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -9,34</t>
+          <t>-20,93; -9,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 6,32</t>
+          <t>-9,25; 5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 9,2</t>
+          <t>-6,03; 9,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,51; -0,95</t>
+          <t>-60,05; -2,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -38,15</t>
+          <t>-73,91; -37,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 38,86</t>
+          <t>-48,3; 33,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 201,52</t>
+          <t>-40,18; 210,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,22; -4,74</t>
+          <t>-13,48; -4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -12,63</t>
+          <t>-21,26; -12,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -5,03</t>
+          <t>-12,57; -5,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -6,27</t>
+          <t>-14,73; -6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,07; -20,56</t>
+          <t>-49,62; -20,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,49; -41,22</t>
+          <t>-61,57; -41,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,33; -24,63</t>
+          <t>-54,44; -25,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,63; -36,08</t>
+          <t>-75,92; -36,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 2,11</t>
+          <t>-11,11; 2,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -3,42</t>
+          <t>-15,29; -3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; -7,03</t>
+          <t>-17,33; -6,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -6,47</t>
+          <t>-17,33; -5,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 9,68</t>
+          <t>-39,07; 10,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -11,5</t>
+          <t>-41,86; -12,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -28,98</t>
+          <t>-56,23; -26,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,03; -26,18</t>
+          <t>-57,22; -25,02</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 11,25</t>
+          <t>1,55; 10,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,4; 15,69</t>
+          <t>5,88; 15,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 11,5</t>
+          <t>2,28; 11,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 10,23</t>
+          <t>-1,57; 10,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,63; 189,13</t>
+          <t>11,33; 176,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,64; 254,33</t>
+          <t>40,86; 257,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,15; 180,81</t>
+          <t>15,63; 171,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 288,25</t>
+          <t>-15,01; 316,85</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -3,15</t>
+          <t>-7,24; -3,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; -4,86</t>
+          <t>-9,35; -4,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -2,83</t>
+          <t>-6,94; -2,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -0,68</t>
+          <t>-6,02; -0,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -16,45</t>
+          <t>-34,46; -15,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -20,98</t>
+          <t>-36,35; -21,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-36,31; -16,33</t>
+          <t>-36,38; -16,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-40,54; -7,75</t>
+          <t>-40,1; -5,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
